--- a/3.ehome/06-开发/ehomeWebAPP/社区服务平台APP接口变更文档.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP/社区服务平台APP接口变更文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
   <si>
     <t>接口地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,14 +257,62 @@
   </si>
   <si>
     <t>新增userIdentity、myApplications、circles字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/my/getServiceOrderDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加serviceWay、serviceCharge字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/live/wechartAdvanceOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/live/wechartOrderNotify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/live/alipayAdvanceOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/live/alipayOrderNotify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/getAdSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改返回参数结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/community/getTopAdSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/community/getHomeBulletin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/live/getTopAdSlot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,9 +451,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,6 +486,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,14 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.125" style="2" customWidth="1"/>
@@ -629,7 +679,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27">
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -669,7 +719,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -689,7 +739,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -709,7 +759,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27">
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -729,7 +779,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,7 +799,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -769,7 +819,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -789,7 +839,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -809,7 +859,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -829,7 +879,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.5">
+    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -849,7 +899,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -869,7 +919,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -889,7 +939,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -909,7 +959,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -929,7 +979,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -949,7 +999,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -969,7 +1019,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -989,7 +1039,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1009,7 +1059,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1029,7 +1079,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1099,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1119,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1089,7 +1139,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1109,7 +1159,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1129,7 +1179,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1199,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27">
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1219,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1239,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="81">
+    <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1259,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1229,7 +1279,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1249,7 +1299,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1319,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1283,7 +1333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -1303,7 +1353,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27">
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -1317,7 +1367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -1331,7 +1381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27">
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1349,6 +1399,140 @@
       </c>
       <c r="F37" s="3">
         <v>42950</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42951</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/3.ehome/06-开发/ehomeWebAPP/社区服务平台APP接口变更文档.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP/社区服务平台APP接口变更文档.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\社区服务平台\SVN\1K_PuJiEJiaPingTai\06-开发\ehomeWebAPP\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="141">
   <si>
     <t>接口地址</t>
   </si>
@@ -306,102 +306,143 @@
     <t>增加modeID、moduleID字段</t>
   </si>
   <si>
+    <t>尹晓银</t>
+  </si>
+  <si>
+    <t>删除orderTypeName字段，添加orderModuleID、orderModuleName字段</t>
+  </si>
+  <si>
     <t>/my/wechartRechargeAdvance</t>
+  </si>
+  <si>
+    <t>/my/wechartRechargeNotify</t>
+  </si>
+  <si>
+    <t>/my/alipayRechargeAdvance</t>
+  </si>
+  <si>
+    <t>/my/alipayRechargeNotify</t>
+  </si>
+  <si>
+    <t>/my/isBindBand</t>
+  </si>
+  <si>
+    <t>增加bandMac参数</t>
+  </si>
+  <si>
+    <t>/my/getBandList</t>
+  </si>
+  <si>
+    <t>bandType更改为int类型，增加bandTypeName、bandSerNum、bandPairType、bandVersion字段</t>
+  </si>
+  <si>
+    <t>增加isAnyTimeCancel字段</t>
+  </si>
+  <si>
+    <t>增加adUrl字段</t>
+  </si>
+  <si>
+    <t>/live/isPaidSuccessOrder</t>
+  </si>
+  <si>
+    <t>/community/getBulletinList</t>
+  </si>
+  <si>
+    <t>增加pageIndex字段</t>
+  </si>
+  <si>
+    <t>/home/getRecommendModule</t>
+  </si>
+  <si>
+    <t>/home/getAllApplication</t>
+  </si>
+  <si>
+    <t>/home/addMyApplication</t>
+  </si>
+  <si>
+    <t>/home/deleteMyApplication</t>
+  </si>
+  <si>
+    <t>/home/getCoupon</t>
+  </si>
+  <si>
+    <t>/home/receiveCoupon</t>
+  </si>
+  <si>
+    <t>/live/getFooterBusiness</t>
+  </si>
+  <si>
+    <t>增加modeID字段</t>
+  </si>
+  <si>
+    <t>/live/getTopBusiness</t>
+  </si>
+  <si>
+    <t>/my/submitMotionData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/wechartRechargeNotify</t>
+    <t>/my/getMotionData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/alipayRechargeAdvance</t>
+    <t>/my/submitSleepData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/alipayRechargeNotify</t>
+    <t>/my/getSleepData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新增接口</t>
+    <t>修改传入参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>尹晓银</t>
-  </si>
-  <si>
-    <t>删除orderTypeName字段，添加orderModuleID、orderModuleName字段</t>
+    <t>修改传入参数和返回数据格式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/isBindBand</t>
+    <t>/my/getMotionStatistics</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加bandMac参数</t>
+    <t>删除接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/getBandList</t>
+    <t>/my/getSleepStatistics</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/uploadBand</t>
+    <t>/live/getBusinessIndex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/getGroupBuyDetail</t>
+    <t>/live/getServiceIndex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加isAnyTimeCancel字段</t>
+    <t>/live/getCourseIndex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bandType更改为int类型，增加bandTypeName、bandSerNum、bandPairType、bandVersion字段</t>
+    <t>增加prodModes字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/home/getAdSlot</t>
+    <t>/live/getSiteIndex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/community/getTopAdSlot</t>
+    <t>增加prodModes字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加adUrl字段</t>
+    <t>/my/getRoomList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/live/isPaidSuccessOrder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/community/getBulletinList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加pageIndex字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/getRecommendModule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改返回参数结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/getAllApplication</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增接口</t>
+    <t>customerService移到最外层</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -413,11 +454,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/home/getCoupon</t>
+    <t>/home/editMyApplication</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/home/receiveCoupon</t>
+    <t>删除接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -483,20 +528,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +612,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,10 +644,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,7 +678,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -802,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,8 +865,8 @@
     <col min="1" max="1" width="34.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -828,13 +880,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -845,16 +897,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>42940</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -865,16 +917,16 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>42940</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -885,16 +937,16 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>42940</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -905,16 +957,16 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>42940</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -925,16 +977,16 @@
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>42940</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -945,16 +997,16 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>42940</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -965,16 +1017,16 @@
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>42941</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -985,16 +1037,16 @@
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>42941</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1005,16 +1057,16 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>42941</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1025,16 +1077,16 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>42941</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1045,16 +1097,16 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>42941</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1065,16 +1117,16 @@
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>42941</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1085,16 +1137,16 @@
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>42942</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1105,16 +1157,16 @@
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>42942</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1125,16 +1177,16 @@
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>42942</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1145,16 +1197,16 @@
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>42942</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1165,16 +1217,16 @@
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>42942</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1185,16 +1237,16 @@
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>42942</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1205,16 +1257,16 @@
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>42942</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1225,16 +1277,16 @@
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>42942</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1245,16 +1297,16 @@
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>42942</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1265,16 +1317,16 @@
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>42942</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1285,16 +1337,16 @@
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>42942</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1305,16 +1357,16 @@
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>42942</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1325,16 +1377,16 @@
       <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>42942</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1345,16 +1397,16 @@
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>42942</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1365,16 +1417,16 @@
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>42942</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1385,16 +1437,16 @@
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>42942</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1405,16 +1457,16 @@
       <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>42942</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1425,16 +1477,16 @@
       <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>42942</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1445,16 +1497,16 @@
       <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>42943</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="6">
         <v>42944</v>
       </c>
     </row>
@@ -1465,16 +1517,16 @@
       <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>42948</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1485,16 +1537,16 @@
       <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>42948</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="6">
         <v>42950</v>
       </c>
     </row>
@@ -1505,13 +1557,13 @@
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>42948</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1522,16 +1574,16 @@
       <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>42948</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1542,16 +1594,16 @@
       <c r="B37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>42949</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="6">
         <v>42950</v>
       </c>
     </row>
@@ -1562,13 +1614,13 @@
       <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>42951</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1577,16 +1629,16 @@
       <c r="B39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>42951</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1597,16 +1649,16 @@
       <c r="B40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>42951</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1615,16 +1667,18 @@
       <c r="B41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>42951</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3"/>
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6">
+        <v>42955</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1633,16 +1687,16 @@
       <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>42951</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="6">
         <v>42954</v>
       </c>
     </row>
@@ -1653,16 +1707,16 @@
       <c r="B43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>42951</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="6">
         <v>42954</v>
       </c>
     </row>
@@ -1673,16 +1727,16 @@
       <c r="B44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>42951</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="6">
         <v>42954</v>
       </c>
     </row>
@@ -1693,16 +1747,16 @@
       <c r="B45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>42951</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="6">
         <v>42954</v>
       </c>
     </row>
@@ -1713,16 +1767,16 @@
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>42951</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="D46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1733,16 +1787,16 @@
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>42955</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1753,16 +1807,16 @@
       <c r="B48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>42955</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1773,16 +1827,16 @@
       <c r="B49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>42955</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1793,16 +1847,16 @@
       <c r="B50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <v>42955</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1813,16 +1867,16 @@
       <c r="B51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>42955</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="6">
         <v>42955</v>
       </c>
     </row>
@@ -1830,19 +1884,19 @@
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <v>42955</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="6">
         <v>42956</v>
       </c>
     </row>
@@ -1850,19 +1904,19 @@
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <v>42955</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="D53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="6">
         <v>42956</v>
       </c>
     </row>
@@ -1870,19 +1924,19 @@
       <c r="A54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>42955</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="6">
         <v>42956</v>
       </c>
     </row>
@@ -1890,19 +1944,19 @@
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <v>42955</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="6">
         <v>42956</v>
       </c>
     </row>
@@ -1910,19 +1964,19 @@
       <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>42955</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="6">
         <v>42956</v>
       </c>
     </row>
@@ -1930,19 +1984,19 @@
       <c r="A57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>42955</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="6">
         <v>42956</v>
       </c>
     </row>
@@ -1950,19 +2004,19 @@
       <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>42955</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="6">
         <v>42956</v>
       </c>
     </row>
@@ -1973,14 +2027,17 @@
       <c r="B59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>42955</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>9</v>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="6">
+        <v>42956</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1990,16 +2047,16 @@
       <c r="B60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <v>42957</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="6">
         <v>42957</v>
       </c>
     </row>
@@ -2010,16 +2067,16 @@
       <c r="B61" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <v>42957</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="6">
         <v>42957</v>
       </c>
     </row>
@@ -2030,16 +2087,16 @@
       <c r="B62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <v>42957</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="6">
         <v>42957</v>
       </c>
     </row>
@@ -2050,16 +2107,16 @@
       <c r="B63" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>42957</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="6">
         <v>42957</v>
       </c>
     </row>
@@ -2070,346 +2127,627 @@
       <c r="B64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>42957</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="6">
         <v>42957</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="4">
+        <v>42957</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="6">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="8">
+        <v>42958</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="3">
-        <v>42957</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="B70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="4">
+        <v>42958</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="4">
+        <v>42961</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="4">
+        <v>42961</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="4">
+        <v>42961</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="6">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="4">
+        <v>42961</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="6">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="4">
+        <v>42961</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="6">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="4">
+        <v>42961</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="6">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="4">
+        <v>42961</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="6">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="4">
+        <v>42961</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="6">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="4">
+        <v>42962</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="6">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="4">
+        <v>42962</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" s="6">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="4">
+        <v>42963</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D66" s="1" t="s">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="4">
+        <v>42963</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D67" s="1" t="s">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="4">
+        <v>42963</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D68" s="1" t="s">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="4">
+        <v>42963</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="7">
-        <v>42958</v>
-      </c>
-      <c r="D69" s="1" t="s">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="4">
+        <v>42963</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D70" s="1" t="s">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="4">
+        <v>42963</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D71" s="1" t="s">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="4">
+        <v>42964</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D72" s="1" t="s">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="4">
+        <v>42964</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D73" s="1" t="s">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="4">
+        <v>42964</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C74" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D74" s="1" t="s">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="4">
+        <v>42964</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="3">
-        <v>42958</v>
-      </c>
-      <c r="D75" s="1" t="s">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="4">
+        <v>42964</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D76" s="1" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="4">
+        <v>42964</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D77" s="1" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="4">
+        <v>42964</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="4">
+        <v>42964</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D77 D78:D81 D82:D1048576">
       <formula1>"未对应,已对应"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -2417,6 +2755,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/3.ehome/06-开发/ehomeWebAPP/社区服务平台APP接口变更文档.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP/社区服务平台APP接口变更文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="140">
   <si>
     <t>接口地址</t>
   </si>
@@ -379,90 +379,71 @@
   </si>
   <si>
     <t>/my/submitMotionData</t>
+  </si>
+  <si>
+    <t>修改传入参数</t>
+  </si>
+  <si>
+    <t>/my/getMotionData</t>
+  </si>
+  <si>
+    <t>修改传入参数和返回数据格式</t>
+  </si>
+  <si>
+    <t>/my/getMotionStatistics</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>/my/submitSleepData</t>
+  </si>
+  <si>
+    <t>/my/getSleepData</t>
+  </si>
+  <si>
+    <t>/my/getSleepStatistics</t>
+  </si>
+  <si>
+    <t>增加prodModes字段</t>
+  </si>
+  <si>
+    <t>/my/getRoomList</t>
+  </si>
+  <si>
+    <t>customerService移到最外层</t>
+  </si>
+  <si>
+    <t>/home/editMyApplication</t>
+  </si>
+  <si>
+    <t>增加moduleType、sort字段</t>
+  </si>
+  <si>
+    <t>增加specificationStock字段</t>
+  </si>
+  <si>
+    <t>/live/getTopic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/getMotionData</t>
+    <t>增加recommendMode字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/submitSleepData</t>
+    <t>/live/getTopAdSlot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/my/getSleepData</t>
+    <t>adType=1增加adUrl字段，adType=2增加productMode字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改传入参数</t>
+    <t>/live/getShoppingCart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改传入参数和返回数据格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/my/getMotionStatistics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/my/getSleepStatistics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/live/getBusinessIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/live/getServiceIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/live/getCourseIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加prodModes字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/live/getSiteIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加prodModes字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/my/getRoomList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerService移到最外层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/addMyApplication</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/deleteMyApplication</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/editMyApplication</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加接口</t>
+    <t>增加lessSendMoney、isActivity、fullMoney、giftMoney、lessMoney字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -544,6 +525,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -854,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2553,69 +2537,99 @@
         <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C86" s="4">
         <v>42963</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>58</v>
+      <c r="D86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" s="4">
         <v>42963</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>58</v>
+      <c r="D87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" s="4">
         <v>42963</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>58</v>
+      <c r="D88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F88" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C89" s="4">
         <v>42963</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>58</v>
+      <c r="D89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C90" s="4">
         <v>42963</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>58</v>
+      <c r="D90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2623,134 +2637,290 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C91" s="4">
         <v>42963</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>58</v>
+      <c r="D91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="C92" s="4">
         <v>42964</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>58</v>
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>131</v>
+        <v>36</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C93" s="4">
         <v>42964</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>58</v>
+      <c r="D93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>131</v>
+        <v>39</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C94" s="4">
         <v>42964</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>58</v>
+      <c r="D94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C95" s="4">
         <v>42964</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>58</v>
+      <c r="D95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="6">
+        <v>42965</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="4">
+        <v>42965</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="6">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="4">
+        <v>42965</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="6">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="4">
+        <v>42965</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="6">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="4">
+        <v>42965</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="6">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="4">
+        <v>42965</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="6">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" s="4">
+        <v>42966</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="6">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="4">
+        <v>42966</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="6">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C96" s="4">
-        <v>42964</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="C103" s="4">
+        <v>42966</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
+    <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="4">
+        <v>42966</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A105" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C97" s="4">
-        <v>42964</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="4">
-        <v>42964</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="4">
-        <v>42964</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="C105" s="4">
+        <v>42966</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D77 D78:D81 D82:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D94 D95:D102 D103:D1048576">
       <formula1>"未对应,已对应"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E94 E95:E102 E103:E1048576">
       <formula1>"李珂,苏士鹏,尹晓银"</formula1>
     </dataValidation>
   </dataValidations>

--- a/3.ehome/06-开发/ehomeWebAPP/社区服务平台APP接口变更文档.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP/社区服务平台APP接口变更文档.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\社区服务平台\SVN\1K_PuJiEJiaPingTai\06-开发\ehomeWebAPP\"/>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="154">
   <si>
     <t>接口地址</t>
   </si>
@@ -439,11 +439,80 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>已对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加lessSendMoney、isActivity、fullMoney、giftMoney、lessMoney字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/live/getShoppingCart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加lessSendMoney、isActivity、fullMoney、giftMoney、lessMoney字段</t>
+    <t>/live/getShoppingCart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加lessSendMoney、isActivity、fullMoney、giftMoney、lessMoney字段实现有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/live/submitLivePaid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>增加o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rderID、orderType字段</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/my/getCollectionList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加pageIndex参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/quickLogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加customid字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加customid字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加imei参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未对应</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,18 +532,35 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -501,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -535,6 +621,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,9 +720,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,6 +755,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,13 +932,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="34.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.125" style="2" customWidth="1"/>
@@ -854,7 +948,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="27">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,7 +988,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,7 +1008,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -934,7 +1028,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -954,7 +1048,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -974,7 +1068,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -994,7 +1088,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1108,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1034,7 +1128,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1148,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="40.5">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1074,7 +1168,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1188,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1208,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1228,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1154,7 +1248,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +1268,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1288,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1214,7 +1308,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1234,7 +1328,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1254,7 +1348,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1274,7 +1368,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1294,7 +1388,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1314,7 +1408,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1334,7 +1428,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1354,7 +1448,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1374,7 +1468,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="27">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1488,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1414,7 +1508,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="81">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1528,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1454,7 +1548,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="27">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1474,7 +1568,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1494,7 +1588,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1514,7 +1608,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -1534,7 +1628,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="27">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -1551,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -1571,7 +1665,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="27">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1591,7 +1685,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1606,7 +1700,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -1626,7 +1720,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -1644,7 +1738,7 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -1664,7 +1758,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -1684,7 +1778,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
@@ -1704,7 +1798,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
@@ -1724,7 +1818,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -1744,7 +1838,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -1764,7 +1858,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -1784,7 +1878,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -1804,7 +1898,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -1824,7 +1918,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,7 +1938,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1864,7 +1958,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="40.5">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
@@ -1884,7 +1978,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="40.5">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -1904,7 +1998,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="40.5">
       <c r="A54" s="1" t="s">
         <v>81</v>
       </c>
@@ -1924,7 +2018,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="40.5">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -1944,7 +2038,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="27">
       <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
@@ -1964,7 +2058,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="27">
       <c r="A57" s="1" t="s">
         <v>85</v>
       </c>
@@ -1984,7 +2078,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
@@ -2004,7 +2098,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>87</v>
       </c>
@@ -2024,7 +2118,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>88</v>
       </c>
@@ -2044,7 +2138,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="27">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -2064,7 +2158,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="27">
       <c r="A62" s="1" t="s">
         <v>91</v>
       </c>
@@ -2084,7 +2178,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="27">
       <c r="A63" s="1" t="s">
         <v>92</v>
       </c>
@@ -2104,7 +2198,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>93</v>
       </c>
@@ -2124,7 +2218,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="27">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
@@ -2144,7 +2238,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
@@ -2161,7 +2255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>98</v>
       </c>
@@ -2178,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>99</v>
       </c>
@@ -2195,7 +2289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>100</v>
       </c>
@@ -2212,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
@@ -2232,7 +2326,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="40.5">
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
@@ -2252,7 +2346,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="40.5">
       <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
@@ -2272,7 +2366,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2292,7 +2386,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
@@ -2312,7 +2406,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
@@ -2332,7 +2426,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>107</v>
       </c>
@@ -2352,7 +2446,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>108</v>
       </c>
@@ -2372,7 +2466,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
@@ -2392,7 +2486,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>111</v>
       </c>
@@ -2412,7 +2506,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>112</v>
       </c>
@@ -2432,7 +2526,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>113</v>
       </c>
@@ -2452,7 +2546,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
@@ -2472,7 +2566,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
@@ -2492,7 +2586,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
@@ -2512,7 +2606,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>118</v>
       </c>
@@ -2532,7 +2626,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>119</v>
       </c>
@@ -2552,7 +2646,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>121</v>
       </c>
@@ -2572,7 +2666,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>123</v>
       </c>
@@ -2592,7 +2686,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>125</v>
       </c>
@@ -2612,7 +2706,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>126</v>
       </c>
@@ -2632,7 +2726,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>127</v>
       </c>
@@ -2652,7 +2746,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="9" t="s">
         <v>33</v>
       </c>
@@ -2672,7 +2766,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="9" t="s">
         <v>36</v>
       </c>
@@ -2692,7 +2786,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
         <v>39</v>
       </c>
@@ -2712,7 +2806,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>41</v>
       </c>
@@ -2732,7 +2826,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>129</v>
       </c>
@@ -2752,7 +2846,7 @@
         <v>42966</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
@@ -2772,7 +2866,7 @@
         <v>42966</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
@@ -2792,7 +2886,7 @@
         <v>42966</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -2812,7 +2906,7 @@
         <v>42966</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>111</v>
       </c>
@@ -2832,7 +2926,7 @@
         <v>42966</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>33</v>
       </c>
@@ -2852,7 +2946,7 @@
         <v>42966</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>20</v>
       </c>
@@ -2872,7 +2966,7 @@
         <v>42966</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>134</v>
       </c>
@@ -2882,11 +2976,17 @@
       <c r="C103" s="4">
         <v>42966</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D103" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F103" s="6">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="27">
       <c r="A104" s="1" t="s">
         <v>136</v>
       </c>
@@ -2896,13 +2996,19 @@
       <c r="C104" s="4">
         <v>42966</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D104" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" s="6">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="27">
       <c r="A105" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>139</v>
@@ -2910,21 +3016,126 @@
       <c r="C105" s="4">
         <v>42966</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F105" s="6">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="40.5">
+      <c r="A106" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D94 D95:D102 D103:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"未对应,已对应"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E94 E95:E102 E103:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"李珂,苏士鹏,尹晓银"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>